--- a/ratings.xlsx
+++ b/ratings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48633F72-5B9A-452B-BAD7-A12402D4C02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0C9A27-D760-4B11-B4DB-4BB54A5FF6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="540" windowWidth="22200" windowHeight="14805" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
+    <workbookView xWindow="3090" yWindow="900" windowWidth="22200" windowHeight="14685" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,21 +35,39 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E0602A9C-ACDD-4F92-BF29-892E7111F341}</author>
+    <author>tc={5B3CB204-A080-41CF-881F-82DB073743C5}</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{E0602A9C-ACDD-4F92-BF29-892E7111F341}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Or Closed price if pos. is not open</t>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{5B3CB204-A080-41CF-881F-82DB073743C5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    More recent ratings will have more accurate alpha as more time passes and the RFR changes in this excel calculation. Alpha difference as RFR changes is negligible thouigh</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
-  <si>
-    <t>Ticker</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Past Price</t>
-  </si>
-  <si>
     <t>SRPT</t>
   </si>
   <si>
@@ -59,6 +77,81 @@
     <t>PYPL</t>
   </si>
   <si>
+    <t>SPY (Benchmark)</t>
+  </si>
+  <si>
+    <t>Update:</t>
+  </si>
+  <si>
+    <t>ATYR</t>
+  </si>
+  <si>
+    <t>ABVX</t>
+  </si>
+  <si>
+    <t>OXY</t>
+  </si>
+  <si>
+    <t>SMMT</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Conviction/Size</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>W/L</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>SHORT</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>10YR US Yield</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>WinRate</t>
+  </si>
+  <si>
+    <t>(test)</t>
+  </si>
+  <si>
+    <t>conviction adj. alpha</t>
+  </si>
+  <si>
+    <t>CRDF</t>
+  </si>
+  <si>
+    <t>Closed 7/30/25</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
     <t>Sector</t>
   </si>
   <si>
@@ -68,44 +161,17 @@
     <t>Tech</t>
   </si>
   <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>SMMT</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Cur Price</t>
-  </si>
-  <si>
-    <t>SPY (Benchmark)</t>
-  </si>
-  <si>
-    <t>Update:</t>
-  </si>
-  <si>
-    <t>IRR</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>ABVX</t>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>alpha on close</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -117,6 +183,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -140,12 +212,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,6 +237,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Liam R" id="{C2F22929-51C4-4A49-8A52-D430D2AD0712}" userId="be0b8782fa6c70c8" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,227 +560,504 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G2" dT="2025-08-26T04:07:39.21" personId="{C2F22929-51C4-4A49-8A52-D430D2AD0712}" id="{E0602A9C-ACDD-4F92-BF29-892E7111F341}">
+    <text>Or Closed price if pos. is not open</text>
+  </threadedComment>
+  <threadedComment ref="L2" dT="2025-08-26T04:10:52.56" personId="{C2F22929-51C4-4A49-8A52-D430D2AD0712}" id="{5B3CB204-A080-41CF-881F-82DB073743C5}">
+    <text>More recent ratings will have more accurate alpha as more time passes and the RFR changes in this excel calculation. Alpha difference as RFR changes is negligible thouigh</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054A6B13-8CAC-436C-8123-F4D415EF8DC4}">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054A6B13-8CAC-436C-8123-F4D415EF8DC4}">
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45894</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="1">
-        <v>45889</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45862</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H3" s="3">
+        <f>(G3/E3-1)*-1</f>
+        <v>0.39855072463768104</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.41710000000000003</v>
+      </c>
+      <c r="L3" s="6">
+        <f>H3-($H$17+M3*($H$16-$H$17))</f>
+        <v>0.41713309365421752</v>
+      </c>
+      <c r="M3">
+        <v>1.54</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="6">
+        <f>(F3*L3)/MIN(F3:F11)</f>
+        <v>0.62569964048132631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>45887</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
       </c>
       <c r="E4">
         <v>21.81</v>
       </c>
       <c r="F4">
-        <v>20.58</v>
-      </c>
-      <c r="G4" s="2">
-        <v>65</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="3">
-        <f>F4/E4-1</f>
-        <v>-5.6396148555708403E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>20.36</v>
+      </c>
+      <c r="H4" s="3">
+        <f>G4/E4-1</f>
+        <v>-6.6483264557542388E-2</v>
+      </c>
+      <c r="L4" s="6">
+        <f>H4-($H$17+M4*($H$16-$H$17))</f>
+        <v>-9.0878141344810703E-2</v>
+      </c>
+      <c r="M4">
+        <v>0.46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="6">
+        <f>(F4*L4)/MIN(F4:F12)</f>
+        <v>-0.22719535336202676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
         <v>45887</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
       </c>
       <c r="E5">
         <v>9.94</v>
       </c>
       <c r="F5">
-        <v>9.68</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>9.51</v>
+      </c>
+      <c r="H5" s="3">
+        <f>(G5/E5-1)*-1</f>
+        <v>4.3259557344064392E-2</v>
+      </c>
+      <c r="L5" s="6">
+        <f>H5-($H$17+M5*($H$16-$H$17))</f>
+        <v>3.2394554235771658E-2</v>
+      </c>
+      <c r="M5">
+        <v>0.8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" ref="P5:P12" si="0">(F5*L5)/MIN(F5:F13)</f>
+        <v>8.0986385589429138E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45893</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5.33</v>
+      </c>
+      <c r="H6" s="3">
+        <f>G6/E6-1</f>
+        <v>5.6603773584906758E-3</v>
+      </c>
+      <c r="L6" s="6">
+        <f>H6-($H$17+M6*($H$16-$H$17))</f>
+        <v>7.6443616739305109E-4</v>
+      </c>
+      <c r="M6">
+        <v>0.95</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9110904184826277E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45894</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
+        <v>77</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>77</v>
+      </c>
+      <c r="H7" s="3">
+        <f>G7/E7-1</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <f>H7-($H$17+M7*($H$16-$H$17))</f>
+        <v>2.0174118861121859E-2</v>
+      </c>
+      <c r="M7">
+        <v>1.58</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" si="0"/>
+        <v>3.0261178291682789E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45894</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>26</v>
+      </c>
+      <c r="H8" s="3">
+        <f>G8/E8-1</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <f>H8-($H$17+M8*($H$16-$H$17))</f>
+        <v>-8.4773783414146889E-3</v>
+      </c>
+      <c r="M8">
+        <v>0.86</v>
+      </c>
+      <c r="N8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="6">
+        <f>(F8*L8)/MIN(F8:F16)</f>
+        <v>-8.4773783414146889E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45887</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>69.23</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="H10" s="3">
+        <f>G10/E10-1</f>
+        <v>9.677885309836709E-3</v>
+      </c>
+      <c r="L10" s="6">
+        <f>H10-($H$17+M10*($H$16-$H$17))</f>
+        <v>2.4280879714909789E-2</v>
+      </c>
+      <c r="M10">
+        <v>1.44</v>
+      </c>
+      <c r="N10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="6">
+        <f>(F10*L10)/MIN(F10:F17)</f>
+        <v>2.4280879714909789E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="3">
-        <f>(F5/E5-1)*-1</f>
-        <v>2.6156941649899346E-2</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C12" s="1">
+        <v>45894</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2">
+        <v>46</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>46</v>
+      </c>
+      <c r="H12" s="3">
+        <f>G12/E12-1</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <f>H12-($H$17+M12*($H$16-$H$17))</f>
+        <v>-6.4876910356829812E-3</v>
+      </c>
+      <c r="M12">
+        <v>0.91</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="6">
+        <f>(F12*L12)/MIN(F12:F19)</f>
+        <v>-8.3712142395909427E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2">
+        <f>AVERAGE(F3:F12)</f>
+        <v>3.875</v>
+      </c>
+      <c r="H14" s="3">
+        <f>AVERAGE(H3:H12)</f>
+        <v>4.8833160011566304E-2</v>
+      </c>
+      <c r="L14" s="6">
+        <f>AVERAGE(L3:L12)</f>
+        <v>4.8612983988938187E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <f>AVERAGE(M3:M12)</f>
+        <v>1.0675000000000001</v>
+      </c>
+      <c r="P14" s="6">
+        <f>AVERAGE(P3:P12)</f>
+        <v>6.4886903569099777E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
         <v>45887</v>
       </c>
-      <c r="E6" s="2">
-        <v>26.7</v>
-      </c>
-      <c r="F6" s="2">
-        <v>25.87</v>
-      </c>
-      <c r="G6" s="2">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="3">
-        <f>F6/E6-1</f>
-        <v>-3.1086142322097277E-2</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>45887</v>
-      </c>
-      <c r="E8">
-        <v>69.23</v>
-      </c>
-      <c r="F8">
-        <v>68.08</v>
-      </c>
-      <c r="G8" s="2">
-        <v>97</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="3">
-        <f>F8/E8-1</f>
-        <v>-1.6611295681063232E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1">
-        <v>45887</v>
-      </c>
-      <c r="E15">
+      <c r="E16">
         <v>643.44000000000005</v>
       </c>
-      <c r="F15" s="2">
-        <v>638.11</v>
-      </c>
-      <c r="I15" s="3">
-        <f>F15/E15-1</f>
-        <v>-8.2836006465250023E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G16" s="2">
+        <v>645.30999999999995</v>
+      </c>
+      <c r="H16" s="3">
+        <f>G16/E16-1</f>
+        <v>2.906253885365917E-3</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="L16" s="6">
+        <f>H16-($H$17+M16*($H$16-$H$17))</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="3">
-        <f>AVERAGE(I4:I6)</f>
-        <v>-2.0441783075968778E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="3">
-        <f>AVERAGE(I8)</f>
-        <v>-1.6611295681063232E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="H17" s="6">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="L17" s="6">
+        <f>H17-($H$17+M17*($H$16-$H$17))</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="3">
-        <f>AVERAGE(I4:I8)</f>
-        <v>-1.9484161227242391E-2</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3">
+        <f>SUM(J3:J15)/COUNT(J3:J15)</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ratings.xlsx
+++ b/ratings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0C9A27-D760-4B11-B4DB-4BB54A5FF6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF3D2E9-4FF7-4EB0-BC77-BE025454F484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="900" windowWidth="22200" windowHeight="14685" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
+    <workbookView xWindow="2985" yWindow="720" windowWidth="22200" windowHeight="14685" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={E0602A9C-ACDD-4F92-BF29-892E7111F341}</author>
-    <author>tc={5B3CB204-A080-41CF-881F-82DB073743C5}</author>
+    <author>tc={B4EED76B-49BB-40DB-92C4-49E5B3985B9F}</author>
   </authors>
   <commentList>
     <comment ref="G2" authorId="0" shapeId="0" xr:uid="{E0602A9C-ACDD-4F92-BF29-892E7111F341}">
@@ -50,12 +50,12 @@
     Or Closed price if pos. is not open</t>
       </text>
     </comment>
-    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{5B3CB204-A080-41CF-881F-82DB073743C5}">
+    <comment ref="R2" authorId="1" shapeId="0" xr:uid="{B4EED76B-49BB-40DB-92C4-49E5B3985B9F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    More recent ratings will have more accurate alpha as more time passes and the RFR changes in this excel calculation. Alpha difference as RFR changes is negligible thouigh</t>
+    10YR yield</t>
       </text>
     </comment>
   </commentList>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -146,9 +146,6 @@
     <t>CRDF</t>
   </si>
   <si>
-    <t>Closed 7/30/25</t>
-  </si>
-  <si>
     <t>AVG</t>
   </si>
   <si>
@@ -164,14 +161,35 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>alpha on close</t>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>CLOSED</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>RFR</t>
+  </si>
+  <si>
+    <t>SPY Price</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Thesis</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -189,6 +207,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -209,10 +234,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -222,8 +248,23 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -565,21 +606,21 @@
   <threadedComment ref="G2" dT="2025-08-26T04:07:39.21" personId="{C2F22929-51C4-4A49-8A52-D430D2AD0712}" id="{E0602A9C-ACDD-4F92-BF29-892E7111F341}">
     <text>Or Closed price if pos. is not open</text>
   </threadedComment>
-  <threadedComment ref="L2" dT="2025-08-26T04:10:52.56" personId="{C2F22929-51C4-4A49-8A52-D430D2AD0712}" id="{5B3CB204-A080-41CF-881F-82DB073743C5}">
-    <text>More recent ratings will have more accurate alpha as more time passes and the RFR changes in this excel calculation. Alpha difference as RFR changes is negligible thouigh</text>
+  <threadedComment ref="R2" dT="2025-08-26T05:28:16.22" personId="{C2F22929-51C4-4A49-8A52-D430D2AD0712}" id="{B4EED76B-49BB-40DB-92C4-49E5B3985B9F}">
+    <text>10YR yield</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054A6B13-8CAC-436C-8123-F4D415EF8DC4}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -592,24 +633,24 @@
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1">
         <v>45894</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -638,22 +679,34 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
       </c>
       <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -673,391 +726,575 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="H3" s="3">
-        <f>(G3/E3-1)*-1</f>
+        <f>(E4/E3-1)*-1</f>
         <v>0.39855072463768104</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" s="6">
-        <v>0.41710000000000003</v>
-      </c>
-      <c r="L3" s="6">
-        <f>H3-($H$17+M3*($H$16-$H$17))</f>
-        <v>0.41713309365421752</v>
-      </c>
-      <c r="M3">
+        <f>H3-(R3+L3*((Q4/Q3)-1)-R3)</f>
+        <v>0.39845362807704293</v>
+      </c>
+      <c r="L3">
         <v>1.54</v>
       </c>
+      <c r="M3" s="3">
+        <f>H3/(DATEDIF(C3,C4,"d")/365)</f>
+        <v>24.245169082125599</v>
+      </c>
       <c r="N3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="6">
-        <f>(F3*L3)/MIN(F3:F11)</f>
-        <v>0.62569964048132631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>634.41999999999996</v>
+      </c>
+      <c r="R3" s="6">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="V3" s="6">
+        <f>(F3*K3)/MIN(F3:F11)</f>
+        <v>0.59768044211556437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C4" s="1">
+        <v>45868</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="K4" s="8"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="2">
+        <v>634.46</v>
+      </c>
+      <c r="V4" s="6"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45887</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>21.81</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>20.36</v>
-      </c>
-      <c r="H4" s="3">
-        <f>G4/E4-1</f>
-        <v>-6.6483264557542388E-2</v>
-      </c>
-      <c r="L4" s="6">
-        <f>H4-($H$17+M4*($H$16-$H$17))</f>
-        <v>-9.0878141344810703E-2</v>
-      </c>
-      <c r="M4">
-        <v>0.46</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="6">
-        <f>(F4*L4)/MIN(F4:F12)</f>
-        <v>-0.22719535336202676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>45887</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>9.94</v>
+        <v>21.81</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5">
-        <v>9.51</v>
+        <v>20.36</v>
       </c>
       <c r="H5" s="3">
-        <f>(G5/E5-1)*-1</f>
-        <v>4.3259557344064392E-2</v>
-      </c>
-      <c r="L5" s="6">
-        <f>H5-($H$17+M5*($H$16-$H$17))</f>
-        <v>3.2394554235771658E-2</v>
-      </c>
-      <c r="M5">
-        <v>0.8</v>
-      </c>
+        <f>G5/E5-1</f>
+        <v>-6.6483264557542388E-2</v>
+      </c>
+      <c r="K5" s="6">
+        <f>H5-($H$16+L5*($H$15-$H$16))</f>
+        <v>-9.0878141344810703E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.46</v>
+      </c>
+      <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="6">
-        <f t="shared" ref="P5:P12" si="0">(F5*L5)/MIN(F5:F13)</f>
-        <v>8.0986385589429138E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="2">
+        <v>643.29999999999995</v>
+      </c>
+      <c r="R5" s="6">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="V5" s="6">
+        <f>(F5*K5)/MIN(F5:F11)</f>
+        <v>-0.22719535336202676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>45893</v>
+        <v>45887</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2">
-        <v>5.3</v>
+      <c r="E6">
+        <v>9.94</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="2">
-        <v>5.33</v>
+      <c r="G6">
+        <v>9.51</v>
       </c>
       <c r="H6" s="3">
-        <f>G6/E6-1</f>
-        <v>5.6603773584906758E-3</v>
-      </c>
-      <c r="L6" s="6">
-        <f>H6-($H$17+M6*($H$16-$H$17))</f>
-        <v>7.6443616739305109E-4</v>
-      </c>
-      <c r="M6">
-        <v>0.95</v>
-      </c>
+        <f>(G6/E6-1)*-1</f>
+        <v>4.3259557344064392E-2</v>
+      </c>
+      <c r="K6" s="6">
+        <f>H6-($H$16+L6*($H$15-$H$16))</f>
+        <v>3.2394554235771658E-2</v>
+      </c>
+      <c r="L6">
+        <v>0.8</v>
+      </c>
+      <c r="M6" s="3"/>
       <c r="N6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="6">
-        <f t="shared" si="0"/>
-        <v>1.9110904184826277E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="2">
+        <v>643.29999999999995</v>
+      </c>
+      <c r="R6" s="6">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="V6" s="6">
+        <f>(F6*K6)/MIN(F6:F12)</f>
+        <v>8.0986385589429138E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>45894</v>
+        <v>45887</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2">
-        <v>77</v>
+      <c r="E7">
+        <v>69.23</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7" s="2">
-        <v>77</v>
+      <c r="G7">
+        <v>69.900000000000006</v>
       </c>
       <c r="H7" s="3">
         <f>G7/E7-1</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <f>H7-($H$17+M7*($H$16-$H$17))</f>
-        <v>2.0174118861121859E-2</v>
-      </c>
-      <c r="M7">
-        <v>1.58</v>
-      </c>
+        <v>9.677885309836709E-3</v>
+      </c>
+      <c r="K7" s="6">
+        <f>H7-($H$16+L7*($H$15-$H$16))</f>
+        <v>2.4280879714909789E-2</v>
+      </c>
+      <c r="L7">
+        <v>1.44</v>
+      </c>
+      <c r="M7" s="3"/>
       <c r="N7" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="6">
-        <f t="shared" si="0"/>
-        <v>3.0261178291682789E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="2">
+        <v>643.29999999999995</v>
+      </c>
+      <c r="R7" s="6">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="V7" s="6">
+        <f>(F7*K7)/MIN(F7:F16)</f>
+        <v>3.6421319572364684E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>45894</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2">
-        <v>26</v>
+        <v>5.3</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2">
-        <v>26</v>
+        <v>5.33</v>
       </c>
       <c r="H8" s="3">
         <f>G8/E8-1</f>
+        <v>5.6603773584906758E-3</v>
+      </c>
+      <c r="K8" s="6">
+        <f>H8-($H$16+L8*($H$15-$H$16))</f>
+        <v>7.6443616739305109E-4</v>
+      </c>
+      <c r="L8">
+        <v>0.95</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="2">
+        <v>642.47</v>
+      </c>
+      <c r="R8" s="6">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="V8" s="6">
+        <f>(F8*K8)/MIN(F8:F13)</f>
+        <v>1.9110904184826277E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45894</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>77</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>77</v>
+      </c>
+      <c r="H9" s="3">
+        <f>G9/E9-1</f>
         <v>0</v>
       </c>
-      <c r="L8" s="6">
-        <f>H8-($H$17+M8*($H$16-$H$17))</f>
-        <v>-8.4773783414146889E-3</v>
-      </c>
-      <c r="M8">
-        <v>0.86</v>
-      </c>
-      <c r="N8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="6">
-        <f>(F8*L8)/MIN(F8:F16)</f>
-        <v>-8.4773783414146889E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K9" s="6">
+        <f>H9-($H$16+L9*($H$15-$H$16))</f>
+        <v>2.0174118861121859E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.58</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="2">
+        <v>642.47</v>
+      </c>
+      <c r="R9" s="6">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="V9" s="6">
+        <f>(F9*K9)/MIN(F9:F14)</f>
+        <v>3.0261178291682789E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>45887</v>
+        <v>45894</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10">
-        <v>69.23</v>
+      <c r="E10" s="2">
+        <v>26</v>
       </c>
       <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>69.900000000000006</v>
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>26</v>
       </c>
       <c r="H10" s="3">
         <f>G10/E10-1</f>
-        <v>9.677885309836709E-3</v>
-      </c>
-      <c r="L10" s="6">
-        <f>H10-($H$17+M10*($H$16-$H$17))</f>
-        <v>2.4280879714909789E-2</v>
-      </c>
-      <c r="M10">
-        <v>1.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <f>H10-($H$16+L10*($H$15-$H$16))</f>
+        <v>-8.4773783414146889E-3</v>
+      </c>
+      <c r="L10">
+        <v>0.86</v>
+      </c>
+      <c r="M10" s="3"/>
       <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="2">
+        <v>642.47</v>
+      </c>
+      <c r="R10" s="6">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="V10" s="6">
+        <f>(F10*K10)/MIN(F10:F15)</f>
+        <v>-8.4773783414146889E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45894</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>46</v>
+      </c>
+      <c r="H11" s="3">
+        <f>G11/E11-1</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <f>H11-($H$16+L11*($H$15-$H$16))</f>
+        <v>-6.4876910356829812E-3</v>
+      </c>
+      <c r="L11">
+        <v>0.91</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="6">
-        <f>(F10*L10)/MIN(F10:F17)</f>
-        <v>2.4280879714909789E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45894</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2">
-        <v>46</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2">
-        <v>46</v>
-      </c>
-      <c r="H12" s="3">
-        <f>G12/E12-1</f>
+      <c r="O11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="2">
+        <v>642.47</v>
+      </c>
+      <c r="R11" s="6">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="V11" s="6">
+        <f>(F11*K11)/MIN(F11:F18)</f>
+        <v>-8.3712142395909427E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="10">
+        <f>SUM(J3:J11)/COUNT(J3:J11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2">
+        <f>AVERAGE(F3:F11)</f>
+        <v>3.875</v>
+      </c>
+      <c r="H13" s="3">
+        <f>AVERAGE(H3:H11)</f>
+        <v>4.8833160011566304E-2</v>
+      </c>
+      <c r="K13" s="6">
+        <f>AVERAGE(K3:K11)</f>
+        <v>4.6278050791791363E-2</v>
+      </c>
+      <c r="L13" s="2">
+        <f>AVERAGE(L3:L11)</f>
+        <v>1.0675000000000001</v>
+      </c>
+      <c r="M13" s="3">
+        <f>AVERAGE(M3:M11)</f>
+        <v>24.245169082125599</v>
+      </c>
+      <c r="V13" s="6">
+        <f>AVERAGE(V3:V11)</f>
+        <v>6.2902058755561388E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45887</v>
+      </c>
+      <c r="E15" s="2">
+        <v>643.44000000000005</v>
+      </c>
+      <c r="G15" s="2">
+        <v>645.30999999999995</v>
+      </c>
+      <c r="H15" s="3">
+        <f>G15/E15-1</f>
+        <v>2.906253885365917E-3</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="K15" s="6">
+        <f>H15-($H$16+L15*($H$15-$H$16))</f>
         <v>0</v>
       </c>
-      <c r="L12" s="6">
-        <f>H12-($H$17+M12*($H$16-$H$17))</f>
-        <v>-6.4876910356829812E-3</v>
-      </c>
-      <c r="M12">
-        <v>0.91</v>
-      </c>
-      <c r="N12" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="6">
-        <f>(F12*L12)/MIN(F12:F19)</f>
-        <v>-8.3712142395909427E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="2">
-        <f>AVERAGE(F3:F12)</f>
-        <v>3.875</v>
-      </c>
-      <c r="H14" s="3">
-        <f>AVERAGE(H3:H12)</f>
-        <v>4.8833160011566304E-2</v>
-      </c>
-      <c r="L14" s="6">
-        <f>AVERAGE(L3:L12)</f>
-        <v>4.8612983988938187E-2</v>
-      </c>
-      <c r="M14" s="2">
-        <f>AVERAGE(M3:M12)</f>
-        <v>1.0675000000000001</v>
-      </c>
-      <c r="P14" s="6">
-        <f>AVERAGE(P3:P12)</f>
-        <v>6.4886903569099777E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45887</v>
-      </c>
-      <c r="E16">
-        <v>643.44000000000005</v>
-      </c>
-      <c r="G16" s="2">
-        <v>645.30999999999995</v>
-      </c>
-      <c r="H16" s="3">
-        <f>G16/E16-1</f>
-        <v>2.906253885365917E-3</v>
+        <v>21</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="H16" s="6">
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="L16" s="6">
-        <f>H16-($H$17+M16*($H$16-$H$17))</f>
+      <c r="K16" s="6">
+        <f>H16-($H$16+L16*($H$15-$H$16))</f>
         <v>0</v>
       </c>
-      <c r="M16">
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="3">
+        <f>SUM(J3,J5,J6,J8,J9,J10)/COUNT(J3,J5,J6,J8,J9,J10)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="H17" s="6">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="L17" s="6">
-        <f>H17-($H$17+M17*($H$16-$H$17))</f>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
+      <c r="K18" s="6">
+        <f>AVERAGE(K3,K5,K6,K8,K9,K10)</f>
+        <v>5.8738536275850683E-2</v>
+      </c>
+      <c r="L18" s="2">
+        <f>AVERAGE(L3,L5,L6,L8,L9,L10)</f>
+        <v>1.0316666666666667</v>
+      </c>
+      <c r="M18" s="3">
+        <f>AVERAGE(M3,M5,M6,M8,M9,M10)</f>
+        <v>24.245169082125599</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3">
-        <f>SUM(J3:J15)/COUNT(J3:J15)</f>
-        <v>1</v>
-      </c>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="J19" t="e">
+        <f>SUM(J7)/COUNT(J7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="6">
+        <f>AVERAGE(K7)</f>
+        <v>2.4280879714909789E-2</v>
+      </c>
+      <c r="L19" s="2">
+        <f>AVERAGE(L7)</f>
+        <v>1.44</v>
+      </c>
+      <c r="M19" s="3" t="e">
+        <f>AVERAGE(M7)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" t="e">
+        <f>SUM(J11)/COUNT(J11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="6">
+        <f>AVERAGE(K11)</f>
+        <v>-6.4876910356829812E-3</v>
+      </c>
+      <c r="L20" s="2">
+        <f>AVERAGE(L11)</f>
+        <v>0.91</v>
+      </c>
+      <c r="M20" s="3" t="e">
+        <f>AVERAGE(M11)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O3" r:id="rId1" xr:uid="{D28EB580-B8E1-48AE-8C56-94A069342149}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{E30F7852-6389-425A-B287-571FF99532F6}"/>
+    <hyperlink ref="O5" r:id="rId3" xr:uid="{D62136F3-CB2F-44C3-B3F1-4721FA1E5EE9}"/>
+    <hyperlink ref="O6" r:id="rId4" xr:uid="{3676D465-641E-4B4D-8677-65A91A2F5628}"/>
+    <hyperlink ref="O7" r:id="rId5" xr:uid="{C150F644-22BC-4D02-802D-BED0E57B013A}"/>
+    <hyperlink ref="O8" r:id="rId6" xr:uid="{99178A6F-2964-4DD4-80DE-C47CB66DDED3}"/>
+    <hyperlink ref="O9" r:id="rId7" xr:uid="{1954C073-6EE4-438F-929C-C507A342B480}"/>
+    <hyperlink ref="O10" r:id="rId8" xr:uid="{D35E01C5-0A43-4ACD-BD0C-88FFA33A47B9}"/>
+    <hyperlink ref="O11" r:id="rId9" xr:uid="{6CCCA1FE-ECD2-4689-860F-9ADE3B056949}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/ratings.xlsx
+++ b/ratings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF3D2E9-4FF7-4EB0-BC77-BE025454F484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F68A41-BE23-4CEB-B3AF-8150255BB8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="720" windowWidth="22200" windowHeight="14685" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
+    <workbookView xWindow="4350" yWindow="795" windowWidth="22200" windowHeight="14685" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={E0602A9C-ACDD-4F92-BF29-892E7111F341}</author>
     <author>tc={B4EED76B-49BB-40DB-92C4-49E5B3985B9F}</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{E0602A9C-ACDD-4F92-BF29-892E7111F341}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Or Closed price if pos. is not open</t>
-      </text>
-    </comment>
-    <comment ref="R2" authorId="1" shapeId="0" xr:uid="{B4EED76B-49BB-40DB-92C4-49E5B3985B9F}">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{B4EED76B-49BB-40DB-92C4-49E5B3985B9F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -183,13 +174,16 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>AVOID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -201,12 +195,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -236,9 +224,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -251,12 +239,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -603,9 +589,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G2" dT="2025-08-26T04:07:39.21" personId="{C2F22929-51C4-4A49-8A52-D430D2AD0712}" id="{E0602A9C-ACDD-4F92-BF29-892E7111F341}">
-    <text>Or Closed price if pos. is not open</text>
-  </threadedComment>
   <threadedComment ref="R2" dT="2025-08-26T05:28:16.22" personId="{C2F22929-51C4-4A49-8A52-D430D2AD0712}" id="{B4EED76B-49BB-40DB-92C4-49E5B3985B9F}">
     <text>10YR yield</text>
   </threadedComment>
@@ -620,15 +603,14 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -749,10 +731,10 @@
       <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Q3" s="2">
@@ -763,7 +745,7 @@
       </c>
       <c r="V3" s="6">
         <f>(F3*K3)/MIN(F3:F11)</f>
-        <v>0.59768044211556437</v>
+        <v>0.39845362807704293</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -777,7 +759,7 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="6"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="2">
@@ -808,10 +790,7 @@
         <f>G5/E5-1</f>
         <v>-6.6483264557542388E-2</v>
       </c>
-      <c r="K5" s="6">
-        <f>H5-($H$16+L5*($H$15-$H$16))</f>
-        <v>-9.0878141344810703E-2</v>
-      </c>
+      <c r="K5" s="6"/>
       <c r="L5">
         <v>0.46</v>
       </c>
@@ -819,10 +798,10 @@
       <c r="N5" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="12"/>
+      <c r="P5" s="10"/>
       <c r="Q5" s="2">
         <v>643.29999999999995</v>
       </c>
@@ -831,7 +810,7 @@
       </c>
       <c r="V5" s="6">
         <f>(F5*K5)/MIN(F5:F11)</f>
-        <v>-0.22719535336202676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -857,10 +836,7 @@
         <f>(G6/E6-1)*-1</f>
         <v>4.3259557344064392E-2</v>
       </c>
-      <c r="K6" s="6">
-        <f>H6-($H$16+L6*($H$15-$H$16))</f>
-        <v>3.2394554235771658E-2</v>
-      </c>
+      <c r="K6" s="6"/>
       <c r="L6">
         <v>0.8</v>
       </c>
@@ -868,10 +844,10 @@
       <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="12"/>
+      <c r="P6" s="10"/>
       <c r="Q6" s="2">
         <v>643.29999999999995</v>
       </c>
@@ -880,7 +856,7 @@
       </c>
       <c r="V6" s="6">
         <f>(F6*K6)/MIN(F6:F12)</f>
-        <v>8.0986385589429138E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -906,10 +882,7 @@
         <f>G7/E7-1</f>
         <v>9.677885309836709E-3</v>
       </c>
-      <c r="K7" s="6">
-        <f>H7-($H$16+L7*($H$15-$H$16))</f>
-        <v>2.4280879714909789E-2</v>
-      </c>
+      <c r="K7" s="6"/>
       <c r="L7">
         <v>1.44</v>
       </c>
@@ -917,10 +890,10 @@
       <c r="N7" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="12"/>
+      <c r="P7" s="10"/>
       <c r="Q7" s="2">
         <v>643.29999999999995</v>
       </c>
@@ -929,7 +902,7 @@
       </c>
       <c r="V7" s="6">
         <f>(F7*K7)/MIN(F7:F16)</f>
-        <v>3.6421319572364684E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -955,10 +928,7 @@
         <f>G8/E8-1</f>
         <v>5.6603773584906758E-3</v>
       </c>
-      <c r="K8" s="6">
-        <f>H8-($H$16+L8*($H$15-$H$16))</f>
-        <v>7.6443616739305109E-4</v>
-      </c>
+      <c r="K8" s="6"/>
       <c r="L8">
         <v>0.95</v>
       </c>
@@ -966,10 +936,10 @@
       <c r="N8" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="12"/>
+      <c r="P8" s="10"/>
       <c r="Q8" s="2">
         <v>642.47</v>
       </c>
@@ -978,7 +948,7 @@
       </c>
       <c r="V8" s="6">
         <f>(F8*K8)/MIN(F8:F13)</f>
-        <v>1.9110904184826277E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -1004,10 +974,7 @@
         <f>G9/E9-1</f>
         <v>0</v>
       </c>
-      <c r="K9" s="6">
-        <f>H9-($H$16+L9*($H$15-$H$16))</f>
-        <v>2.0174118861121859E-2</v>
-      </c>
+      <c r="K9" s="6"/>
       <c r="L9">
         <v>1.58</v>
       </c>
@@ -1015,10 +982,10 @@
       <c r="N9" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="12"/>
+      <c r="P9" s="10"/>
       <c r="Q9" s="2">
         <v>642.47</v>
       </c>
@@ -1027,7 +994,7 @@
       </c>
       <c r="V9" s="6">
         <f>(F9*K9)/MIN(F9:F14)</f>
-        <v>3.0261178291682789E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -1038,25 +1005,16 @@
         <v>45894</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2">
         <v>26</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
       <c r="G10" s="2">
         <v>26</v>
       </c>
-      <c r="H10" s="3">
-        <f>G10/E10-1</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <f>H10-($H$16+L10*($H$15-$H$16))</f>
-        <v>-8.4773783414146889E-3</v>
-      </c>
+      <c r="H10" s="3"/>
+      <c r="K10" s="6"/>
       <c r="L10">
         <v>0.86</v>
       </c>
@@ -1064,10 +1022,10 @@
       <c r="N10" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="12"/>
+      <c r="P10" s="10"/>
       <c r="Q10" s="2">
         <v>642.47</v>
       </c>
@@ -1076,7 +1034,7 @@
       </c>
       <c r="V10" s="6">
         <f>(F10*K10)/MIN(F10:F15)</f>
-        <v>-8.4773783414146889E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -1102,10 +1060,7 @@
         <f>G11/E11-1</f>
         <v>0</v>
       </c>
-      <c r="K11" s="6">
-        <f>H11-($H$16+L11*($H$15-$H$16))</f>
-        <v>-6.4876910356829812E-3</v>
-      </c>
+      <c r="K11" s="6"/>
       <c r="L11">
         <v>0.91</v>
       </c>
@@ -1113,10 +1068,10 @@
       <c r="N11" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="12"/>
+      <c r="P11" s="10"/>
       <c r="Q11" s="2">
         <v>642.47</v>
       </c>
@@ -1125,14 +1080,14 @@
       </c>
       <c r="V11" s="6">
         <f>(F11*K11)/MIN(F11:F18)</f>
-        <v>-8.3712142395909427E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="3">
         <f>SUM(J3:J11)/COUNT(J3:J11)</f>
         <v>1</v>
       </c>
@@ -1143,15 +1098,15 @@
       </c>
       <c r="F13" s="2">
         <f>AVERAGE(F3:F11)</f>
-        <v>3.875</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="H13" s="3">
         <f>AVERAGE(H3:H11)</f>
-        <v>4.8833160011566304E-2</v>
+        <v>5.5809325727504348E-2</v>
       </c>
       <c r="K13" s="6">
         <f>AVERAGE(K3:K11)</f>
-        <v>4.6278050791791363E-2</v>
+        <v>0.39845362807704293</v>
       </c>
       <c r="L13" s="2">
         <f>AVERAGE(L3:L11)</f>
@@ -1163,8 +1118,13 @@
       </c>
       <c r="V13" s="6">
         <f>AVERAGE(V3:V11)</f>
-        <v>6.2902058755561388E-2</v>
-      </c>
+        <v>4.9806703509630366E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="V14" s="6"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
@@ -1224,7 +1184,7 @@
       </c>
       <c r="K18" s="6">
         <f>AVERAGE(K3,K5,K6,K8,K9,K10)</f>
-        <v>5.8738536275850683E-2</v>
+        <v>0.39845362807704293</v>
       </c>
       <c r="L18" s="2">
         <f>AVERAGE(L3,L5,L6,L8,L9,L10)</f>
@@ -1243,9 +1203,9 @@
         <f>SUM(J7)/COUNT(J7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="6" t="e">
         <f>AVERAGE(K7)</f>
-        <v>2.4280879714909789E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L19" s="2">
         <f>AVERAGE(L7)</f>
@@ -1265,9 +1225,9 @@
         <f>SUM(J11)/COUNT(J11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="6" t="e">
         <f>AVERAGE(K11)</f>
-        <v>-6.4876910356829812E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L20" s="2">
         <f>AVERAGE(L11)</f>
@@ -1290,8 +1250,8 @@
     <hyperlink ref="O7" r:id="rId5" xr:uid="{C150F644-22BC-4D02-802D-BED0E57B013A}"/>
     <hyperlink ref="O8" r:id="rId6" xr:uid="{99178A6F-2964-4DD4-80DE-C47CB66DDED3}"/>
     <hyperlink ref="O9" r:id="rId7" xr:uid="{1954C073-6EE4-438F-929C-C507A342B480}"/>
-    <hyperlink ref="O10" r:id="rId8" xr:uid="{D35E01C5-0A43-4ACD-BD0C-88FFA33A47B9}"/>
-    <hyperlink ref="O11" r:id="rId9" xr:uid="{6CCCA1FE-ECD2-4689-860F-9ADE3B056949}"/>
+    <hyperlink ref="O11" r:id="rId8" xr:uid="{6CCCA1FE-ECD2-4689-860F-9ADE3B056949}"/>
+    <hyperlink ref="O10" r:id="rId9" xr:uid="{D35E01C5-0A43-4ACD-BD0C-88FFA33A47B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>

--- a/ratings.xlsx
+++ b/ratings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F68A41-BE23-4CEB-B3AF-8150255BB8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101663FB-3F8A-423C-8769-B18645BC06CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="795" windowWidth="22200" windowHeight="14685" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
+    <workbookView xWindow="2880" yWindow="795" windowWidth="22200" windowHeight="14685" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1011,7 +1011,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="2">
-        <v>26</v>
+        <v>24.8</v>
       </c>
       <c r="H10" s="3"/>
       <c r="K10" s="6"/>

--- a/ratings.xlsx
+++ b/ratings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101663FB-3F8A-423C-8769-B18645BC06CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9A23BC-1EF8-45E1-951F-4947763B810B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="795" windowWidth="22200" windowHeight="14685" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
+    <workbookView xWindow="3120" yWindow="0" windowWidth="22200" windowHeight="15585" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -177,6 +177,27 @@
   </si>
   <si>
     <t>AVOID</t>
+  </si>
+  <si>
+    <t>OKLO</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>SHORT?</t>
+  </si>
+  <si>
+    <t>QBTS</t>
+  </si>
+  <si>
+    <t>IONQ</t>
+  </si>
+  <si>
+    <t>JOBY</t>
+  </si>
+  <si>
+    <t>MSTR</t>
   </si>
 </sst>
 </file>
@@ -597,13 +618,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054A6B13-8CAC-436C-8123-F4D415EF8DC4}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -855,7 +876,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V6" s="6">
-        <f>(F6*K6)/MIN(F6:F12)</f>
+        <f>(F6*K6)/MIN(F6:F16)</f>
         <v>0</v>
       </c>
     </row>
@@ -901,7 +922,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V7" s="6">
-        <f>(F7*K7)/MIN(F7:F16)</f>
+        <f>(F7*K7)/MIN(F7:F21)</f>
         <v>0</v>
       </c>
     </row>
@@ -947,7 +968,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V8" s="6">
-        <f>(F8*K8)/MIN(F8:F13)</f>
+        <f>(F8*K8)/MIN(F8:F18)</f>
         <v>0</v>
       </c>
     </row>
@@ -993,7 +1014,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V9" s="6">
-        <f>(F9*K9)/MIN(F9:F14)</f>
+        <f>(F9*K9)/MIN(F9:F19)</f>
         <v>0</v>
       </c>
     </row>
@@ -1033,7 +1054,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V10" s="6">
-        <f>(F10*K10)/MIN(F10:F15)</f>
+        <f>(F10*K10)/MIN(F10:F20)</f>
         <v>0</v>
       </c>
     </row>
@@ -1079,167 +1100,272 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V11" s="6">
-        <f>(F11*K11)/MIN(F11:F18)</f>
+        <f>(F11*K11)/MIN(F11:F23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I12" s="8" t="s">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45897</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2">
+        <v>73</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="K12" s="6"/>
+      <c r="M12" s="3"/>
+      <c r="N12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="2">
+        <v>647</v>
+      </c>
+      <c r="R12" s="6">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="V12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45897</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="K13" s="6"/>
+      <c r="M13" s="3"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="6"/>
+      <c r="V13" s="6"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45897</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="K14" s="6"/>
+      <c r="M14" s="3"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="6"/>
+      <c r="V14" s="6"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45897</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="K15" s="6"/>
+      <c r="M15" s="3"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="6"/>
+      <c r="V15" s="6"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J16" s="3">
         <f>SUM(J3:J11)/COUNT(J3:J11)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I17" s="8"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F18" s="2">
         <f>AVERAGE(F3:F11)</f>
         <v>4.1428571428571432</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H18" s="3">
         <f>AVERAGE(H3:H11)</f>
         <v>5.5809325727504348E-2</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K18" s="6">
         <f>AVERAGE(K3:K11)</f>
         <v>0.39845362807704293</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L18" s="2">
         <f>AVERAGE(L3:L11)</f>
         <v>1.0675000000000001</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M18" s="3">
         <f>AVERAGE(M3:M11)</f>
         <v>24.245169082125599</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V18" s="6">
         <f>AVERAGE(V3:V11)</f>
         <v>4.9806703509630366E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="H14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="V14" s="6"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="H19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="V19" s="6"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C20" s="1">
         <v>45887</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E20" s="2">
         <v>643.44000000000005</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G20" s="2">
         <v>645.30999999999995</v>
       </c>
-      <c r="H15" s="3">
-        <f>G15/E15-1</f>
+      <c r="H20" s="3">
+        <f>G20/E20-1</f>
         <v>2.906253885365917E-3</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="K15" s="6">
-        <f>H15-($H$16+L15*($H$15-$H$16))</f>
+      <c r="I20" s="3"/>
+      <c r="K20" s="6">
+        <f>H20-($H$21+L20*($H$20-$H$21))</f>
         <v>0</v>
       </c>
-      <c r="L15">
+      <c r="L20">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="H16" s="6">
+      <c r="C21" s="1"/>
+      <c r="H21" s="6">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="K16" s="6">
-        <f>H16-($H$16+L16*($H$15-$H$16))</f>
+      <c r="I21" s="3"/>
+      <c r="K21" s="6">
+        <f>H21-($H$21+L21*($H$20-$H$21))</f>
         <v>0</v>
       </c>
-      <c r="L16">
+      <c r="L21">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J17" t="s">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J23" s="3">
         <f>SUM(J3,J5,J6,J8,J9,J10)/COUNT(J3,J5,J6,J8,J9,J10)</f>
         <v>1</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K23" s="6">
         <f>AVERAGE(K3,K5,K6,K8,K9,K10)</f>
         <v>0.39845362807704293</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L23" s="2">
         <f>AVERAGE(L3,L5,L6,L8,L9,L10)</f>
         <v>1.0316666666666667</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M23" s="3">
         <f>AVERAGE(M3,M5,M6,M8,M9,M10)</f>
         <v>24.245169082125599</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="J19" t="e">
+      <c r="J24" t="e">
         <f>SUM(J7)/COUNT(J7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="6" t="e">
+      <c r="K24" s="6" t="e">
         <f>AVERAGE(K7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L24" s="2">
         <f>AVERAGE(L7)</f>
         <v>1.44</v>
       </c>
-      <c r="M19" s="3" t="e">
+      <c r="M24" s="3" t="e">
         <f>AVERAGE(M7)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" t="e">
+      <c r="I25" s="3"/>
+      <c r="J25" t="e">
         <f>SUM(J11)/COUNT(J11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="6" t="e">
+      <c r="K25" s="6" t="e">
         <f>AVERAGE(K11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L25" s="2">
         <f>AVERAGE(L11)</f>
         <v>0.91</v>
       </c>
-      <c r="M20" s="3" t="e">
+      <c r="M25" s="3" t="e">
         <f>AVERAGE(M11)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K22" s="6"/>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="K27" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1252,9 +1378,10 @@
     <hyperlink ref="O9" r:id="rId7" xr:uid="{1954C073-6EE4-438F-929C-C507A342B480}"/>
     <hyperlink ref="O11" r:id="rId8" xr:uid="{6CCCA1FE-ECD2-4689-860F-9ADE3B056949}"/>
     <hyperlink ref="O10" r:id="rId9" xr:uid="{D35E01C5-0A43-4ACD-BD0C-88FFA33A47B9}"/>
+    <hyperlink ref="O12" r:id="rId10" xr:uid="{A047975B-CA68-4AA6-A365-A332455D0250}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
-  <legacyDrawing r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/ratings.xlsx
+++ b/ratings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9A23BC-1EF8-45E1-951F-4947763B810B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AF75AC-BD55-41AC-AD5F-1C4EBF65CE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="0" windowWidth="22200" windowHeight="15585" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="22200" windowHeight="14685" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -71,9 +71,6 @@
     <t>SPY (Benchmark)</t>
   </si>
   <si>
-    <t>Update:</t>
-  </si>
-  <si>
     <t>ATYR</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>OKLO</t>
   </si>
   <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
     <t>SHORT?</t>
   </si>
   <si>
@@ -198,6 +192,15 @@
   </si>
   <si>
     <t>MSTR</t>
+  </si>
+  <si>
+    <t>Quantum</t>
+  </si>
+  <si>
+    <t>Crypto/Fake</t>
+  </si>
+  <si>
+    <t>Aviation</t>
   </si>
 </sst>
 </file>
@@ -247,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -269,6 +272,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -618,13 +622,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054A6B13-8CAC-436C-8123-F4D415EF8DC4}">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -637,87 +641,83 @@
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.85546875" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1">
-        <v>45894</v>
-      </c>
+      <c r="A1" s="4"/>
+      <c r="B1" s="1"/>
       <c r="V1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
       <c r="V2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>45862</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>4.1399999999999997</v>
@@ -733,7 +733,7 @@
         <v>0.39855072463768104</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -750,13 +750,13 @@
         <v>24.245169082125599</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2">
         <v>634.41999999999996</v>
@@ -774,7 +774,7 @@
         <v>45868</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>2.4900000000000002</v>
@@ -789,14 +789,14 @@
       <c r="V4" s="6"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>45887</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>21.81</v>
@@ -817,10 +817,10 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="2">
@@ -835,14 +835,14 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>45887</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>9.94</v>
@@ -863,10 +863,10 @@
       </c>
       <c r="M6" s="3"/>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="2">
@@ -888,7 +888,7 @@
         <v>45887</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>69.23</v>
@@ -909,10 +909,10 @@
       </c>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="2">
@@ -922,19 +922,19 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V7" s="6">
-        <f>(F7*K7)/MIN(F7:F21)</f>
+        <f>(F7*K7)/MIN(F7:F22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>6</v>
+      <c r="B8" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>45894</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2">
         <v>5.3</v>
@@ -955,10 +955,10 @@
       </c>
       <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="2">
@@ -968,19 +968,19 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V8" s="6">
-        <f>(F8*K8)/MIN(F8:F18)</f>
+        <f>(F8*K8)/MIN(F8:F19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>7</v>
+      <c r="B9" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>45894</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2">
         <v>77</v>
@@ -1001,10 +1001,10 @@
       </c>
       <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="2">
@@ -1014,19 +1014,19 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V9" s="6">
-        <f>(F9*K9)/MIN(F9:F19)</f>
+        <f>(F9*K9)/MIN(F9:F20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>45894</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2">
         <v>26</v>
@@ -1041,10 +1041,10 @@
       </c>
       <c r="M10" s="3"/>
       <c r="N10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="2">
@@ -1054,19 +1054,19 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V10" s="6">
-        <f>(F10*K10)/MIN(F10:F20)</f>
+        <f>(F10*K10)/MIN(F10:F21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>45894</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2">
         <v>46</v>
@@ -1087,10 +1087,10 @@
       </c>
       <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="2">
@@ -1100,19 +1100,19 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V11" s="6">
-        <f>(F11*K11)/MIN(F11:F23)</f>
+        <f>(F11*K11)/MIN(F11:F24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1">
         <v>45897</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2">
         <v>73</v>
@@ -1122,10 +1122,10 @@
       <c r="K12" s="6"/>
       <c r="M12" s="3"/>
       <c r="N12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="2">
@@ -1137,20 +1137,23 @@
       <c r="V12" s="6"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>44</v>
+      <c r="B13" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="1">
         <v>45897</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
       <c r="K13" s="6"/>
       <c r="M13" s="3"/>
+      <c r="N13" t="s">
+        <v>46</v>
+      </c>
       <c r="O13" s="9"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="2"/>
@@ -1158,20 +1161,23 @@
       <c r="V13" s="6"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>45</v>
+      <c r="B14" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="1">
         <v>45897</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
       <c r="K14" s="6"/>
       <c r="M14" s="3"/>
+      <c r="N14" t="s">
+        <v>46</v>
+      </c>
       <c r="O14" s="9"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="2"/>
@@ -1179,20 +1185,23 @@
       <c r="V14" s="6"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>46</v>
+      <c r="B15" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="C15" s="1">
         <v>45897</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="K15" s="6"/>
       <c r="M15" s="3"/>
+      <c r="N15" t="s">
+        <v>48</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="2"/>
@@ -1200,172 +1209,180 @@
       <c r="V15" s="6"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="B16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45897</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="3">
-        <f>SUM(J3:J11)/COUNT(J3:J11)</f>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="3">
+        <f>SUM(J3:J16)/COUNT(J3:J16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="I17" s="8"/>
-      <c r="J17" s="3"/>
-    </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="I18" s="8"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="2">
         <f>AVERAGE(F3:F11)</f>
         <v>4.1428571428571432</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H19" s="3">
         <f>AVERAGE(H3:H11)</f>
         <v>5.5809325727504348E-2</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K19" s="6">
         <f>AVERAGE(K3:K11)</f>
         <v>0.39845362807704293</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L19" s="2">
         <f>AVERAGE(L3:L11)</f>
         <v>1.0675000000000001</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M19" s="3">
         <f>AVERAGE(M3:M11)</f>
         <v>24.245169082125599</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V19" s="6">
         <f>AVERAGE(V3:V11)</f>
         <v>4.9806703509630366E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="H19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="V19" s="6"/>
-    </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1">
-        <v>45887</v>
-      </c>
-      <c r="E20" s="2">
-        <v>643.44000000000005</v>
-      </c>
-      <c r="G20" s="2">
-        <v>645.30999999999995</v>
-      </c>
-      <c r="H20" s="3">
-        <f>G20/E20-1</f>
-        <v>2.906253885365917E-3</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="K20" s="6">
-        <f>H20-($H$21+L20*($H$20-$H$21))</f>
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
+      <c r="H20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="V20" s="6"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="H21" s="6">
-        <v>4.2700000000000002E-2</v>
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45887</v>
+      </c>
+      <c r="E21" s="2">
+        <v>643.44000000000005</v>
+      </c>
+      <c r="G21" s="2">
+        <v>645.30999999999995</v>
+      </c>
+      <c r="H21" s="3">
+        <f>G21/E21-1</f>
+        <v>2.906253885365917E-3</v>
       </c>
       <c r="I21" s="3"/>
       <c r="K21" s="6">
-        <f>H21-($H$21+L21*($H$20-$H$21))</f>
+        <f>H21-($H$22+L21*($H$21-$H$22))</f>
         <v>0</v>
       </c>
       <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="H22" s="6">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="K22" s="6">
+        <f>H22-($H$22+L22*($H$21-$H$22))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="J22" t="s">
-        <v>23</v>
+      <c r="L22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="3">
         <f>SUM(J3,J5,J6,J8,J9,J10)/COUNT(J3,J5,J6,J8,J9,J10)</f>
         <v>1</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K24" s="6">
         <f>AVERAGE(K3,K5,K6,K8,K9,K10)</f>
         <v>0.39845362807704293</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L24" s="2">
         <f>AVERAGE(L3,L5,L6,L8,L9,L10)</f>
         <v>1.0316666666666667</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M24" s="3">
         <f>AVERAGE(M3,M5,M6,M8,M9,M10)</f>
         <v>24.245169082125599</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" t="e">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="e">
         <f>SUM(J7)/COUNT(J7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="6" t="e">
+      <c r="K25" s="6" t="e">
         <f>AVERAGE(K7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L25" s="2">
         <f>AVERAGE(L7)</f>
         <v>1.44</v>
       </c>
-      <c r="M24" s="3" t="e">
+      <c r="M25" s="3" t="e">
         <f>AVERAGE(M7)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" t="e">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" t="e">
         <f>SUM(J11)/COUNT(J11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="6" t="e">
+      <c r="K26" s="6" t="e">
         <f>AVERAGE(K11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L26" s="2">
         <f>AVERAGE(L11)</f>
         <v>0.91</v>
       </c>
-      <c r="M25" s="3" t="e">
+      <c r="M26" s="3" t="e">
         <f>AVERAGE(M11)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="K27" s="6"/>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="K28" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/ratings.xlsx
+++ b/ratings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AF75AC-BD55-41AC-AD5F-1C4EBF65CE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EE3288-1874-43D0-A0F8-BEE638630A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="22200" windowHeight="14685" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
+    <workbookView xWindow="1185" yWindow="975" windowWidth="22200" windowHeight="14535" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -179,9 +179,6 @@
     <t>OKLO</t>
   </si>
   <si>
-    <t>SHORT?</t>
-  </si>
-  <si>
     <t>QBTS</t>
   </si>
   <si>
@@ -200,7 +197,7 @@
     <t>Crypto/Fake</t>
   </si>
   <si>
-    <t>Aviation</t>
+    <t>Aerospace</t>
   </si>
 </sst>
 </file>
@@ -250,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -272,7 +269,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -625,10 +621,10 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -789,7 +785,7 @@
       <c r="V4" s="6"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -835,7 +831,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="11" t="s">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -927,7 +923,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="11" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
@@ -973,7 +969,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -1137,8 +1133,8 @@
       <c r="V12" s="6"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="11" t="s">
-        <v>42</v>
+      <c r="B13" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="1">
         <v>45897</v>
@@ -1152,7 +1148,7 @@
       <c r="K13" s="6"/>
       <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="10"/>
@@ -1161,8 +1157,8 @@
       <c r="V13" s="6"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="11" t="s">
-        <v>43</v>
+      <c r="B14" t="s">
+        <v>42</v>
       </c>
       <c r="C14" s="1">
         <v>45897</v>
@@ -1176,7 +1172,7 @@
       <c r="K14" s="6"/>
       <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="10"/>
@@ -1185,14 +1181,14 @@
       <c r="V14" s="6"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="11" t="s">
-        <v>44</v>
+      <c r="B15" t="s">
+        <v>43</v>
       </c>
       <c r="C15" s="1">
         <v>45897</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2"/>
       <c r="G15" s="2"/>
@@ -1200,17 +1196,19 @@
       <c r="K15" s="6"/>
       <c r="M15" s="3"/>
       <c r="N15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O15" s="9"/>
+        <v>47</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="6"/>
       <c r="V15" s="6"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B16" s="11" t="s">
-        <v>45</v>
+      <c r="B16" t="s">
+        <v>44</v>
       </c>
       <c r="C16" s="1">
         <v>45897</v>
@@ -1219,7 +1217,7 @@
         <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
@@ -1396,9 +1394,10 @@
     <hyperlink ref="O11" r:id="rId8" xr:uid="{6CCCA1FE-ECD2-4689-860F-9ADE3B056949}"/>
     <hyperlink ref="O10" r:id="rId9" xr:uid="{D35E01C5-0A43-4ACD-BD0C-88FFA33A47B9}"/>
     <hyperlink ref="O12" r:id="rId10" xr:uid="{A047975B-CA68-4AA6-A365-A332455D0250}"/>
+    <hyperlink ref="O15" r:id="rId11" xr:uid="{E1AFF3FB-1C65-4169-8AC3-97DCAA64B9AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
-  <legacyDrawing r:id="rId12"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/ratings.xlsx
+++ b/ratings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EE3288-1874-43D0-A0F8-BEE638630A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792CEE4B-6EF2-43A8-8AC8-B4BB4985EE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="975" windowWidth="22200" windowHeight="14535" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
+    <workbookView xWindow="900" yWindow="510" windowWidth="22200" windowHeight="14205" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -618,13 +618,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054A6B13-8CAC-436C-8123-F4D415EF8DC4}">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -801,11 +801,11 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>20.36</v>
+        <v>18.2</v>
       </c>
       <c r="H5" s="3">
         <f>G5/E5-1</f>
-        <v>-6.6483264557542388E-2</v>
+        <v>-0.16552040348464003</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5">
@@ -847,14 +847,14 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <v>9.51</v>
+        <v>9.64</v>
       </c>
       <c r="H6" s="3">
         <f>(G6/E6-1)*-1</f>
-        <v>4.3259557344064392E-2</v>
+        <v>3.0181086519114553E-2</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>0.8</v>
       </c>
       <c r="M6" s="3"/>
@@ -893,11 +893,11 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>69.900000000000006</v>
+        <v>70.19</v>
       </c>
       <c r="H7" s="3">
         <f>G7/E7-1</f>
-        <v>9.677885309836709E-3</v>
+        <v>1.3866820742452601E-2</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7">
@@ -918,7 +918,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V7" s="6">
-        <f>(F7*K7)/MIN(F7:F22)</f>
+        <f>(F7*K7)/MIN(F7:F25)</f>
         <v>0</v>
       </c>
     </row>
@@ -939,11 +939,11 @@
         <v>5</v>
       </c>
       <c r="G8" s="2">
-        <v>5.33</v>
+        <v>5.38</v>
       </c>
       <c r="H8" s="3">
         <f>G8/E8-1</f>
-        <v>5.6603773584906758E-3</v>
+        <v>1.5094339622641506E-2</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8">
@@ -985,11 +985,11 @@
         <v>3</v>
       </c>
       <c r="G9" s="2">
-        <v>77</v>
+        <v>80.53</v>
       </c>
       <c r="H9" s="3">
         <f>G9/E9-1</f>
-        <v>0</v>
+        <v>4.5844155844155798E-2</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9">
@@ -1028,7 +1028,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="2">
-        <v>24.8</v>
+        <v>23.7</v>
       </c>
       <c r="H10" s="3"/>
       <c r="K10" s="6"/>
@@ -1050,7 +1050,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V10" s="6">
-        <f>(F10*K10)/MIN(F10:F21)</f>
+        <f>(F10*K10)/MIN(F10:F24)</f>
         <v>0</v>
       </c>
     </row>
@@ -1071,11 +1071,11 @@
         <v>5</v>
       </c>
       <c r="G11" s="2">
-        <v>46</v>
+        <v>47.61</v>
       </c>
       <c r="H11" s="3">
         <f>G11/E11-1</f>
-        <v>0</v>
+        <v>3.499999999999992E-2</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11">
@@ -1096,7 +1096,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V11" s="6">
-        <f>(F11*K11)/MIN(F11:F24)</f>
+        <f>(F11*K11)/MIN(F11:F27)</f>
         <v>0</v>
       </c>
     </row>
@@ -1113,9 +1113,15 @@
       <c r="E12" s="2">
         <v>73</v>
       </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
       <c r="K12" s="6"/>
+      <c r="L12">
+        <v>0.62</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" t="s">
         <v>30</v>
@@ -1142,18 +1148,30 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>15.92</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
       <c r="K13" s="6"/>
+      <c r="L13" s="2">
+        <v>1.4</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" t="s">
         <v>45</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="6"/>
+      <c r="Q13" s="2">
+        <v>647</v>
+      </c>
+      <c r="R13" s="6">
+        <v>4.2299999999999997E-2</v>
+      </c>
       <c r="V13" s="6"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -1166,18 +1184,30 @@
       <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>43.3</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
       <c r="K14" s="6"/>
+      <c r="L14">
+        <v>2.54</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" t="s">
         <v>45</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="10"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="6"/>
+      <c r="Q14" s="2">
+        <v>647</v>
+      </c>
+      <c r="R14" s="6">
+        <v>4.2299999999999997E-2</v>
+      </c>
       <c r="V14" s="6"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -1190,10 +1220,18 @@
       <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>14.27</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="K15" s="6"/>
+      <c r="L15">
+        <v>2.52</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" t="s">
         <v>47</v>
@@ -1202,8 +1240,12 @@
         <v>38</v>
       </c>
       <c r="P15" s="10"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="6"/>
+      <c r="Q15" s="2">
+        <v>647</v>
+      </c>
+      <c r="R15" s="6">
+        <v>4.2299999999999997E-2</v>
+      </c>
       <c r="V15" s="6"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -1214,10 +1256,25 @@
         <v>45897</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="E16" s="2">
+        <v>338.84</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>3.78</v>
       </c>
       <c r="N16" t="s">
         <v>46</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>647</v>
+      </c>
+      <c r="R16" s="6">
+        <v>4.2299999999999997E-2</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
@@ -1238,12 +1295,12 @@
         <v>26</v>
       </c>
       <c r="F19" s="2">
-        <f>AVERAGE(F3:F11)</f>
-        <v>4.1428571428571432</v>
+        <f>AVERAGE(F3:F16)</f>
+        <v>3.9166666666666665</v>
       </c>
       <c r="H19" s="3">
         <f>AVERAGE(H3:H11)</f>
-        <v>5.5809325727504348E-2</v>
+        <v>5.3288103411629338E-2</v>
       </c>
       <c r="K19" s="6">
         <f>AVERAGE(K3:K11)</f>
@@ -1269,118 +1326,189 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1">
-        <v>45887</v>
-      </c>
-      <c r="E21" s="2">
-        <v>643.44000000000005</v>
-      </c>
-      <c r="G21" s="2">
-        <v>645.30999999999995</v>
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <f>COUNTIF(D3:D16,"SHORT")</f>
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <f>D21/$D$23</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F21" s="2">
+        <f>AVERAGE(F12:F16,F8,F6,F3)</f>
+        <v>3.875</v>
       </c>
       <c r="H21" s="3">
-        <f>G21/E21-1</f>
-        <v>2.906253885365917E-3</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="K21" s="6">
-        <f>H21-($H$22+L21*($H$21-$H$22))</f>
-        <v>0</v>
-      </c>
-      <c r="L21">
+        <f>AVERAGE(H12:H16,H8,H6,H3)</f>
+        <v>0.14794205025981236</v>
+      </c>
+      <c r="J21" s="3">
+        <f>SUM(J12:J16,J8,J6,J3)/COUNT(J12:J16,J8,J6,J3)</f>
         <v>1</v>
       </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="2">
+        <f>AVERAGE(L12:L16,L8,L6,L3)</f>
+        <v>1.7687499999999998</v>
+      </c>
+      <c r="V21" s="6"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="H22" s="6">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="K22" s="6">
-        <f>H22-($H$22+L22*($H$21-$H$22))</f>
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <f>COUNTIF(D3:D16,"LONG")</f>
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <f>D22/$D$23</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F22" s="2">
+        <f>AVERAGE(F11,F9,F7,F5)</f>
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <f>AVERAGE(H11,H9,H7,H5)</f>
+        <v>-1.7702356724507928E-2</v>
+      </c>
+      <c r="J22" t="e">
+        <f>SUM(J11,J9,J7,J5)/COUNT(J11,J9,J7,J5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2">
+        <f>AVERAGE(L11,L9,L7,L5)</f>
+        <v>1.0975000000000001</v>
+      </c>
+      <c r="V22" s="6"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="J23" t="s">
-        <v>22</v>
-      </c>
+      <c r="D23">
+        <f>SUM(D21:D22)</f>
+        <v>12</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="V23" s="6"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45862</v>
+      </c>
+      <c r="E24" s="2">
+        <v>634.41999999999996</v>
+      </c>
+      <c r="G24" s="2">
+        <v>645.04999999999995</v>
+      </c>
+      <c r="H24" s="3">
+        <f>G24/E24-1</f>
+        <v>1.6755461681535966E-2</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="K24" s="6">
+        <f>H24-($H$25+L24*($H$24-$H$25))</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="H25" s="6">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="K25" s="6">
+        <f>H25-($H$25+L25*($H$24-$H$25))</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J27" s="3">
         <f>SUM(J3,J5,J6,J8,J9,J10)/COUNT(J3,J5,J6,J8,J9,J10)</f>
         <v>1</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K27" s="6">
         <f>AVERAGE(K3,K5,K6,K8,K9,K10)</f>
         <v>0.39845362807704293</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L27" s="2">
         <f>AVERAGE(L3,L5,L6,L8,L9,L10)</f>
         <v>1.0316666666666667</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M27" s="3">
         <f>AVERAGE(M3,M5,M6,M8,M9,M10)</f>
         <v>24.245169082125599</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="J25" t="e">
+      <c r="J28" t="e">
         <f>SUM(J7)/COUNT(J7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="6" t="e">
+      <c r="K28" s="6" t="e">
         <f>AVERAGE(K7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L28" s="2">
         <f>AVERAGE(L7)</f>
         <v>1.44</v>
       </c>
-      <c r="M25" s="3" t="e">
+      <c r="M28" s="3" t="e">
         <f>AVERAGE(M7)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" t="e">
+      <c r="I29" s="3"/>
+      <c r="J29" t="e">
         <f>SUM(J11)/COUNT(J11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="6" t="e">
+      <c r="K29" s="6" t="e">
         <f>AVERAGE(K11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L29" s="2">
         <f>AVERAGE(L11)</f>
         <v>0.91</v>
       </c>
-      <c r="M26" s="3" t="e">
+      <c r="M29" s="3" t="e">
         <f>AVERAGE(M11)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="K28" s="6"/>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="K31" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/ratings.xlsx
+++ b/ratings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792CEE4B-6EF2-43A8-8AC8-B4BB4985EE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A57CBF-D022-42D3-9C48-63AA8CACE98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="510" windowWidth="22200" windowHeight="14205" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
+    <workbookView xWindow="2985" yWindow="1995" windowWidth="22200" windowHeight="14205" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -152,9 +152,6 @@
     <t>CLOSE</t>
   </si>
   <si>
-    <t>CLOSED</t>
-  </si>
-  <si>
     <t>IRR</t>
   </si>
   <si>
@@ -198,6 +195,42 @@
   </si>
   <si>
     <t>Aerospace</t>
+  </si>
+  <si>
+    <t>Closed after final clinical trial results released. The data from new patients added was about as bad as it could be but the company proceeded with a phase 3 so the stock didn't completely collapsed. The phase 3 is likely to fail but I recommended closing the position due to limited upside and long time it will take for the phase 3 results to be released and collapse the stock price.</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Very stable cheap stock with a significant amount of PP&amp;E even subtracting debt the PP&amp;E is worth more than the market cap. This buisness virtually has no threat and easy to run so assuming any positive return on PP&amp;E the stock is cheap.</t>
+  </si>
+  <si>
+    <t>Stock collapsed in the past year due to regulatory scrutiny requesting voluntary halt of shipments of a treatment for DMD. The FDA regulator responsible for this scrutiny was fired and now there isn't much risk to their drug 'Elevidys'. Many of the deaths which collapsed the stock have also been assumed as non-treatment related and were reported to the FDA before they were publically announced. The companies other drugs the "PMOs" are even worth more than the market cap and adding 'Elevidys' the stock can easily double. It seems that distrust in management or the many FDA scares collapsed the stock but the fundamental buisness is unchanged from a year ago except maybe non-ambulatory patients for Elevidys which only makes up less than 20% of the treatment population.</t>
+  </si>
+  <si>
+    <t>Very weak data and only submission for EMA approval and not FDA. Many people including Jesse Brodkin have wrote a lot about the problems with the recent phase 3 trial for their main drug they are trying to get approval for and these questions remain unanswered by the company. I don't see this ever getting approved by the FDA or EMA with the current data from the clinical trials and the company is likely doing this tactic for time to raise capital for a new drug before it gets denied.</t>
+  </si>
+  <si>
+    <t>Cheap stock w/ strong cash-flow and a good competitive moat not as strong as a company as OXY but for a tech company it is decently strong.</t>
+  </si>
+  <si>
+    <t>Leveraged bitcoin holding company w/ stock over 2x NAV. The way they leverage is mainly converts either their BTC holdings need to more than double or they need to issue way more converts AND BTC needs to rise otherwise the stock collapes and if a downturn happens it has very significant downside. With the excess 40B of value not being accounted for in NAV it seems unlikely they will be able to get many more investment banks buying converts the market is just not that big. However I would rather avoid than short this stock due to the random nature of the underlying crypto that this is based on and irrational market around this sort of thing.</t>
+  </si>
+  <si>
+    <t>Very weak/basically completely failed clinical trials and this upcoming data release is likely to prove the drug doesn’t work and the stock will collapse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despite management's claims of superior to classical computing performance any research on quantum shows that this technology is very early and will take a long time to develop. The stock is at a very high price following recent AI rallys as investors hope that this "quantum" will be a necessary speedup for data centers. </t>
+  </si>
+  <si>
+    <t>Lots of problems w/ the type of reactor this company is developing and misleading statements made by management. The stock is trading at ~11B way overvalued for a company that has a lot of regulatory scrutiny over their reactor design which was denied and isn't likely to be approved for years. The margins and use cases of this reactor seem a lot smaller than what the market is implying. It seems that this stock went so high due to management claims that this will "solve the energy problem" in AI datacenters. This claim however has many flaws and its likely the stock collapses. Also, their current buisness model they say they want to execute (owning of reactors and selling energy) requires a lot of capital and would have to take a lot of debt or dilute shareholders.</t>
+  </si>
+  <si>
+    <t>eVTOL company which wants to be like Uber however they still don't have regulatory approval and even when they do there is likely a lot of restrictions for cities (the majority of the TAM) and they have to follow regulations for planes and need licensed pilots currently which would be very expensive and the price of the stock is implying a lot more market than what is likely.</t>
+  </si>
+  <si>
+    <t>The China data for their main drug in the pipeline was very strong but the problem is the FDA has historically almost never approved a drug based on China data and it may not be reliable so further studies in the USA are needed and are being conducted the market is fairly priced in for a decent chance of success but the recent USA interim data isn't very bullish and at this price I wouldn't recommend a position in either direction it is just hard to tell what the data could show. Also, with Keytruda's patent expiry in 2028 this drugs pricing if not significantly better in PFS and OS will be severely limited. I wouldn't short this stock but I see long being pretty risky and would rather avoid this stock.</t>
   </si>
 </sst>
 </file>
@@ -621,10 +654,10 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -684,22 +717,22 @@
         <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
         <v>27</v>
       </c>
       <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
         <v>24</v>
@@ -728,9 +761,6 @@
         <f>(E4/E3-1)*-1</f>
         <v>0.39855072463768104</v>
       </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
       <c r="J3">
         <v>1</v>
       </c>
@@ -749,10 +779,10 @@
         <v>28</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="2">
         <v>634.41999999999996</v>
@@ -776,6 +806,12 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="H4" s="3"/>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
       <c r="K4" s="6"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -807,6 +843,12 @@
         <f>G5/E5-1</f>
         <v>-0.16552040348464003</v>
       </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5">
         <v>0.46</v>
@@ -816,7 +858,7 @@
         <v>28</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="2">
@@ -853,6 +895,12 @@
         <f>(G6/E6-1)*-1</f>
         <v>3.0181086519114553E-2</v>
       </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
       <c r="K6" s="6"/>
       <c r="L6" s="2">
         <v>0.8</v>
@@ -862,7 +910,7 @@
         <v>28</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="2">
@@ -899,6 +947,12 @@
         <f>G7/E7-1</f>
         <v>1.3866820742452601E-2</v>
       </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7">
         <v>1.44</v>
@@ -908,7 +962,7 @@
         <v>29</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="2">
@@ -945,6 +999,12 @@
         <f>G8/E8-1</f>
         <v>1.5094339622641506E-2</v>
       </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8">
         <v>0.95</v>
@@ -954,7 +1014,7 @@
         <v>28</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="2">
@@ -1000,7 +1060,7 @@
         <v>28</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="2">
@@ -1022,7 +1082,7 @@
         <v>45894</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2">
         <v>26</v>
@@ -1031,6 +1091,12 @@
         <v>23.7</v>
       </c>
       <c r="H10" s="3"/>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10">
         <v>0.86</v>
@@ -1040,7 +1106,7 @@
         <v>28</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="2">
@@ -1077,6 +1143,12 @@
         <f>G11/E11-1</f>
         <v>3.499999999999992E-2</v>
       </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11">
         <v>0.91</v>
@@ -1086,7 +1158,7 @@
         <v>30</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="2">
@@ -1102,7 +1174,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1">
         <v>45897</v>
@@ -1118,6 +1190,12 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12">
         <v>0.62</v>
@@ -1127,7 +1205,7 @@
         <v>30</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="2">
@@ -1140,7 +1218,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1">
         <v>45897</v>
@@ -1156,13 +1234,19 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="2">
         <v>1.4</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="10"/>
@@ -1176,7 +1260,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1">
         <v>45897</v>
@@ -1198,7 +1282,7 @@
       </c>
       <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="10"/>
@@ -1212,7 +1296,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1">
         <v>45897</v>
@@ -1228,16 +1312,22 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15">
         <v>2.52</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="2">
@@ -1250,13 +1340,13 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1">
         <v>45897</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2">
         <v>338.84</v>
@@ -1264,11 +1354,17 @@
       <c r="F16">
         <v>4</v>
       </c>
+      <c r="I16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
       <c r="L16">
         <v>3.78</v>
       </c>
       <c r="N16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q16" s="2">
         <v>647</v>
@@ -1330,11 +1426,11 @@
       </c>
       <c r="D21">
         <f>COUNTIF(D3:D16,"SHORT")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="3">
         <f>D21/$D$23</f>
-        <v>0.66666666666666663</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="F21" s="2">
         <f>AVERAGE(F12:F16,F8,F6,F3)</f>
@@ -1365,7 +1461,7 @@
       </c>
       <c r="E22" s="3">
         <f>D22/$D$23</f>
-        <v>0.33333333333333331</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="F22" s="2">
         <f>AVERAGE(F11,F9,F7,F5)</f>
@@ -1389,7 +1485,7 @@
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D23">
         <f>SUM(D21:D22)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="6"/>
       <c r="K23" s="6"/>
